--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240101.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="41">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -72,34 +72,37 @@
     <t>20240101-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000003</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000012</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000004</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000013</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000005</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000007</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000008</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000009</t>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000003</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000008</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000004</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000009</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000005</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000010</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000012</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000013</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000014</t>
+  </si>
+  <si>
+    <t>MAT_B</t>
   </si>
   <si>
     <t>MAT_A</t>
-  </si>
-  <si>
-    <t>MAT_B</t>
   </si>
   <si>
     <t>PLANT_001</t>
@@ -500,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,13 +558,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>45293</v>
@@ -573,19 +576,19 @@
         <v>45294</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="M2">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -596,13 +599,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2">
         <v>45293</v>
@@ -614,19 +617,19 @@
         <v>45294</v>
       </c>
       <c r="I3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="M3">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -637,13 +640,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2">
         <v>45294</v>
@@ -655,19 +658,19 @@
         <v>45294</v>
       </c>
       <c r="I4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="M4">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -678,13 +681,13 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2">
         <v>45294</v>
@@ -696,19 +699,19 @@
         <v>45294</v>
       </c>
       <c r="I5">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M5">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -719,13 +722,13 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2">
         <v>45294</v>
@@ -737,19 +740,19 @@
         <v>45294</v>
       </c>
       <c r="I6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M6">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -760,13 +763,13 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2">
         <v>45295</v>
@@ -778,39 +781,39 @@
         <v>45294</v>
       </c>
       <c r="I7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M7">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="2">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="G8" s="2">
         <v>45292</v>
@@ -819,19 +822,19 @@
         <v>45294</v>
       </c>
       <c r="I8">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -842,16 +845,16 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="G9" s="2">
         <v>45292</v>
@@ -860,10 +863,10 @@
         <v>45294</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -877,19 +880,19 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2">
         <v>45294</v>
@@ -901,10 +904,10 @@
         <v>45294</v>
       </c>
       <c r="I10">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -924,16 +927,16 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G11" s="2">
         <v>45292</v>
@@ -942,18 +945,59 @@
         <v>45295</v>
       </c>
       <c r="I11">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45295</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45292</v>
+      </c>
+      <c r="H12" s="2">
+        <v>45294</v>
+      </c>
+      <c r="I12">
         <v>20</v>
       </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>1</v>
       </c>
     </row>
@@ -972,7 +1016,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -984,19 +1028,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1005,7 +1049,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1013,13 +1057,13 @@
         <v>45292</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1028,22 +1072,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="K2">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1051,13 +1095,13 @@
         <v>45292</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1066,22 +1110,22 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I3">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="K3">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1089,13 +1133,13 @@
         <v>45292</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1119,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1127,13 +1171,13 @@
         <v>45292</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1157,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1175,7 +1219,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1187,7 +1231,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1195,13 +1239,13 @@
         <v>45292</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1212,13 +1256,13 @@
         <v>45292</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>2</v>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240101.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -72,37 +72,34 @@
     <t>20240101-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000003</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000008</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000004</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000009</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000005</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000010</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000012</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000013</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000014</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000007</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000012</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000008</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000013</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000009</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000003</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000004</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000005</t>
+  </si>
+  <si>
+    <t>MAT_A</t>
   </si>
   <si>
     <t>MAT_B</t>
-  </si>
-  <si>
-    <t>MAT_A</t>
   </si>
   <si>
     <t>PLANT_001</t>
@@ -503,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,13 +555,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>45293</v>
@@ -576,19 +573,19 @@
         <v>45294</v>
       </c>
       <c r="I2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.965</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -599,13 +596,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
       </c>
       <c r="F3" s="2">
         <v>45293</v>
@@ -617,19 +614,19 @@
         <v>45294</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.965</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -640,14 +637,14 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" s="2">
         <v>45294</v>
       </c>
@@ -658,19 +655,19 @@
         <v>45294</v>
       </c>
       <c r="I4">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.965</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -681,14 +678,14 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
       <c r="F5" s="2">
         <v>45294</v>
       </c>
@@ -699,19 +696,19 @@
         <v>45294</v>
       </c>
       <c r="I5">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.965</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -722,14 +719,14 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
       <c r="F6" s="2">
         <v>45294</v>
       </c>
@@ -740,19 +737,19 @@
         <v>45294</v>
       </c>
       <c r="I6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.965</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -763,13 +760,13 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
       </c>
       <c r="F7" s="2">
         <v>45295</v>
@@ -781,39 +778,39 @@
         <v>45294</v>
       </c>
       <c r="I7">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.965</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="2">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="G8" s="2">
         <v>45292</v>
@@ -822,19 +819,19 @@
         <v>45294</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -845,16 +842,16 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="G9" s="2">
         <v>45292</v>
@@ -863,10 +860,10 @@
         <v>45294</v>
       </c>
       <c r="I9">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -880,19 +877,19 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2">
         <v>45294</v>
@@ -904,10 +901,10 @@
         <v>45294</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -927,16 +924,16 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G11" s="2">
         <v>45292</v>
@@ -945,10 +942,10 @@
         <v>45295</v>
       </c>
       <c r="I11">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -957,47 +954,6 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="2">
-        <v>45295</v>
-      </c>
-      <c r="G12" s="2">
-        <v>45292</v>
-      </c>
-      <c r="H12" s="2">
-        <v>45294</v>
-      </c>
-      <c r="I12">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
         <v>1</v>
       </c>
     </row>
@@ -1016,7 +972,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1028,19 +984,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1049,7 +1005,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1057,13 +1013,13 @@
         <v>45292</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1072,22 +1028,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H2">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J2">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0.965</v>
+        <v>0.98</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1095,13 +1051,13 @@
         <v>45292</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1110,22 +1066,22 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H3">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="I3">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J3">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0.965</v>
+        <v>0.98</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1133,13 +1089,13 @@
         <v>45292</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1163,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1171,13 +1127,13 @@
         <v>45292</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1201,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1219,7 +1175,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1231,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1239,13 +1195,13 @@
         <v>45292</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1256,13 +1212,13 @@
         <v>45292</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>2</v>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240101.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="41">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -72,19 +72,22 @@
     <t>20240101-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000007</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000012</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000008</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000013</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000009</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000008</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000014</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000009</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000015</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000010</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000016</t>
   </si>
   <si>
     <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000003</t>
@@ -500,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,13 +558,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>45293</v>
@@ -573,10 +576,10 @@
         <v>45294</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -596,13 +599,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2">
         <v>45293</v>
@@ -617,7 +620,7 @@
         <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -637,28 +640,28 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45294</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45292</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45294</v>
+      </c>
+      <c r="I4">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45294</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45292</v>
-      </c>
-      <c r="H4" s="2">
-        <v>45294</v>
-      </c>
-      <c r="I4">
-        <v>18</v>
-      </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -678,13 +681,13 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2">
         <v>45294</v>
@@ -696,19 +699,19 @@
         <v>45294</v>
       </c>
       <c r="I5">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="M5">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -719,13 +722,13 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2">
         <v>45294</v>
@@ -740,16 +743,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="M6">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -760,13 +763,13 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2">
         <v>45295</v>
@@ -778,39 +781,39 @@
         <v>45294</v>
       </c>
       <c r="I7">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="M7">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="2">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="G8" s="2">
         <v>45292</v>
@@ -819,19 +822,19 @@
         <v>45294</v>
       </c>
       <c r="I8">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -842,16 +845,16 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="G9" s="2">
         <v>45292</v>
@@ -860,10 +863,10 @@
         <v>45294</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -877,19 +880,19 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2">
         <v>45294</v>
@@ -901,10 +904,10 @@
         <v>45294</v>
       </c>
       <c r="I10">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -924,16 +927,16 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G11" s="2">
         <v>45292</v>
@@ -942,10 +945,10 @@
         <v>45295</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -954,6 +957,47 @@
         <v>1</v>
       </c>
       <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45295</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45292</v>
+      </c>
+      <c r="H12" s="2">
+        <v>45294</v>
+      </c>
+      <c r="I12">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>1</v>
       </c>
     </row>
@@ -972,7 +1016,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -984,19 +1028,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1005,7 +1049,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1013,13 +1057,13 @@
         <v>45292</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1043,7 +1087,7 @@
         <v>0.98</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1051,13 +1095,13 @@
         <v>45292</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1066,22 +1110,22 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="I3">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="K3">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1089,13 +1133,13 @@
         <v>45292</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1119,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1127,13 +1171,13 @@
         <v>45292</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1157,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1175,7 +1219,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1187,7 +1231,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1195,13 +1239,13 @@
         <v>45292</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1212,13 +1256,13 @@
         <v>45292</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>2</v>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240101.xlsx
@@ -72,31 +72,31 @@
     <t>20240101-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000008</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000003</t>
   </si>
   <si>
     <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000014</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000009</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000004</t>
   </si>
   <si>
     <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000015</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000010</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000005</t>
   </si>
   <si>
     <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000016</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000003</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000004</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000005</t>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000008</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000009</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000010</t>
   </si>
   <si>
     <t>MAT_A</t>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240101.xlsx
@@ -72,31 +72,31 @@
     <t>20240101-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000003</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000008</t>
   </si>
   <si>
     <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000014</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000004</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000009</t>
   </si>
   <si>
     <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000015</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000005</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000010</t>
   </si>
   <si>
     <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000016</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000008</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000009</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000010</t>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000003</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000004</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000005</t>
   </si>
   <si>
     <t>MAT_A</t>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240101.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -72,31 +72,31 @@
     <t>20240101-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000008</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000014</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000009</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000015</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000010</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000016</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000003</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000004</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000005</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000009</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000015</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000010</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000016</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000011</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000017</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000004</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000005</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000006</t>
   </si>
   <si>
     <t>MAT_A</t>
@@ -142,6 +142,54 @@
   </si>
   <si>
     <t>truck_used</t>
+  </si>
+  <si>
+    <t>sheet</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>severity</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>missing_element</t>
+  </si>
+  <si>
+    <t>affected_records</t>
+  </si>
+  <si>
+    <t>route_breakdown</t>
+  </si>
+  <si>
+    <t>Global_DemandPriority</t>
+  </si>
+  <si>
+    <t>Missing priority configuration for demand_element "net demand for AO" (affects 1 records: cross_node: 1). Records will be filtered out and not processed.</t>
+  </si>
+  <si>
+    <t>Missing priority configuration for demand_element "net demand for normal" (affects 1 records: cross_node: 1). Records will be filtered out and not processed.</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>Data Loss - 1 deployment plans excluded</t>
+  </si>
+  <si>
+    <t>net demand for AO</t>
+  </si>
+  <si>
+    <t>net demand for normal</t>
+  </si>
+  <si>
+    <t>cross_node: 1</t>
   </si>
 </sst>
 </file>
@@ -1287,12 +1335,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240101.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="56">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -72,31 +72,28 @@
     <t>20240101-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000009</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000015</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000010</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000016</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000011</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000017</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000004</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000005</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000006</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000004</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000013</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000005</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000014</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000006</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000008</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000009</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000010</t>
   </si>
   <si>
     <t>MAT_A</t>
@@ -551,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,13 +603,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>45293</v>
@@ -624,10 +621,10 @@
         <v>45294</v>
       </c>
       <c r="I2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -647,13 +644,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
       </c>
       <c r="F3" s="2">
         <v>45293</v>
@@ -668,7 +665,7 @@
         <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -688,13 +685,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
       </c>
       <c r="F4" s="2">
         <v>45294</v>
@@ -706,10 +703,10 @@
         <v>45294</v>
       </c>
       <c r="I4">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -729,13 +726,13 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
       </c>
       <c r="F5" s="2">
         <v>45294</v>
@@ -747,19 +744,19 @@
         <v>45294</v>
       </c>
       <c r="I5">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -770,13 +767,13 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
       </c>
       <c r="F6" s="2">
         <v>45294</v>
@@ -791,16 +788,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -811,13 +808,13 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
       </c>
       <c r="F7" s="2">
         <v>45295</v>
@@ -829,39 +826,39 @@
         <v>45294</v>
       </c>
       <c r="I7">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="2">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="G8" s="2">
         <v>45292</v>
@@ -870,19 +867,19 @@
         <v>45294</v>
       </c>
       <c r="I8">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -893,16 +890,16 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="G9" s="2">
         <v>45292</v>
@@ -911,10 +908,10 @@
         <v>45294</v>
       </c>
       <c r="I9">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -928,19 +925,19 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2">
         <v>45294</v>
@@ -952,10 +949,10 @@
         <v>45294</v>
       </c>
       <c r="I10">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -975,16 +972,16 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G11" s="2">
         <v>45292</v>
@@ -993,10 +990,10 @@
         <v>45295</v>
       </c>
       <c r="I11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1005,47 +1002,6 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="2">
-        <v>45295</v>
-      </c>
-      <c r="G12" s="2">
-        <v>45292</v>
-      </c>
-      <c r="H12" s="2">
-        <v>45294</v>
-      </c>
-      <c r="I12">
-        <v>38</v>
-      </c>
-      <c r="J12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
         <v>1</v>
       </c>
     </row>
@@ -1064,7 +1020,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1076,19 +1032,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1097,7 +1053,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1105,13 +1061,13 @@
         <v>45292</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1135,7 +1091,7 @@
         <v>0.98</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1143,13 +1099,13 @@
         <v>45292</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1158,22 +1114,22 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H3">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="I3">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J3">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1181,13 +1137,13 @@
         <v>45292</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1211,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1219,13 +1175,13 @@
         <v>45292</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1249,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1223,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1279,7 +1235,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1287,13 +1243,13 @@
         <v>45292</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1304,13 +1260,13 @@
         <v>45292</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1343,74 +1299,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
       <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" t="s">
-        <v>54</v>
-      </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>55</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240101.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -72,34 +72,37 @@
     <t>20240101-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000004</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000013</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000005</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000014</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000006</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000008</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000009</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000010</t>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000004</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000012</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000005</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000013</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000006</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000014</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000016</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000017</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000018</t>
+  </si>
+  <si>
+    <t>MAT_B</t>
   </si>
   <si>
     <t>MAT_A</t>
-  </si>
-  <si>
-    <t>MAT_B</t>
   </si>
   <si>
     <t>PLANT_001</t>
@@ -548,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,13 +606,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>45293</v>
@@ -621,19 +624,19 @@
         <v>45294</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="M2">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -644,13 +647,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2">
         <v>45293</v>
@@ -662,19 +665,19 @@
         <v>45294</v>
       </c>
       <c r="I3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="M3">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -685,13 +688,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2">
         <v>45294</v>
@@ -703,19 +706,19 @@
         <v>45294</v>
       </c>
       <c r="I4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="M4">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -726,13 +729,13 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2">
         <v>45294</v>
@@ -744,19 +747,19 @@
         <v>45294</v>
       </c>
       <c r="I5">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M5">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -767,13 +770,13 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2">
         <v>45294</v>
@@ -785,19 +788,19 @@
         <v>45294</v>
       </c>
       <c r="I6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M6">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -808,13 +811,13 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2">
         <v>45295</v>
@@ -826,39 +829,39 @@
         <v>45294</v>
       </c>
       <c r="I7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M7">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="2">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="G8" s="2">
         <v>45292</v>
@@ -867,19 +870,19 @@
         <v>45294</v>
       </c>
       <c r="I8">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -890,16 +893,16 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="G9" s="2">
         <v>45292</v>
@@ -908,10 +911,10 @@
         <v>45294</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -925,19 +928,19 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2">
         <v>45294</v>
@@ -949,10 +952,10 @@
         <v>45294</v>
       </c>
       <c r="I10">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -972,16 +975,16 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G11" s="2">
         <v>45292</v>
@@ -990,18 +993,59 @@
         <v>45295</v>
       </c>
       <c r="I11">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45295</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45292</v>
+      </c>
+      <c r="H12" s="2">
+        <v>45294</v>
+      </c>
+      <c r="I12">
         <v>20</v>
       </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>1</v>
       </c>
     </row>
@@ -1020,7 +1064,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1032,19 +1076,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1053,7 +1097,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1061,13 +1105,13 @@
         <v>45292</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1076,22 +1120,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="K2">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1099,13 +1143,13 @@
         <v>45292</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1114,22 +1158,22 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I3">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="K3">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1137,13 +1181,13 @@
         <v>45292</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1167,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1175,13 +1219,13 @@
         <v>45292</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1205,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1267,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1235,7 +1279,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1243,13 +1287,13 @@
         <v>45292</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1260,13 +1304,13 @@
         <v>45292</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1299,74 +1343,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240101.xlsx
@@ -75,28 +75,28 @@
     <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000004</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000012</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000016</t>
   </si>
   <si>
     <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000005</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000013</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000017</t>
   </si>
   <si>
     <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000006</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000014</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000016</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000017</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000018</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000018</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000012</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000013</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000014</t>
   </si>
   <si>
     <t>MAT_B</t>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240101.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -72,31 +72,37 @@
     <t>20240101-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000004</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000016</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000005</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000017</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000006</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000018</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000012</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000013</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000014</t>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000003</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000022</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000004</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000023</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000005</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000024</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000006</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000025</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000018</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000019</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000020</t>
   </si>
   <si>
     <t>MAT_B</t>
@@ -551,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,13 +612,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
         <v>45293</v>
@@ -627,16 +633,16 @@
         <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K2">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.965</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -647,13 +653,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2">
         <v>45293</v>
@@ -665,19 +671,19 @@
         <v>45294</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.965</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -688,13 +694,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2">
         <v>45294</v>
@@ -706,36 +712,36 @@
         <v>45294</v>
       </c>
       <c r="I4">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.965</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
         <v>45294</v>
@@ -747,19 +753,19 @@
         <v>45294</v>
       </c>
       <c r="I5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.965</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -770,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2">
         <v>45294</v>
@@ -788,19 +794,19 @@
         <v>45294</v>
       </c>
       <c r="I6">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.965</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -811,13 +817,13 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2">
         <v>45295</v>
@@ -832,16 +838,16 @@
         <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K7">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.965</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -852,13 +858,13 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2">
         <v>45295</v>
@@ -870,39 +876,39 @@
         <v>45294</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.965</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="G9" s="2">
         <v>45292</v>
@@ -911,10 +917,10 @@
         <v>45294</v>
       </c>
       <c r="I9">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -923,27 +929,27 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="G10" s="2">
         <v>45292</v>
@@ -952,10 +958,10 @@
         <v>45294</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -964,27 +970,27 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="G11" s="2">
         <v>45292</v>
@@ -993,10 +999,10 @@
         <v>45295</v>
       </c>
       <c r="I11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1010,22 +1016,22 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G12" s="2">
         <v>45292</v>
@@ -1034,18 +1040,100 @@
         <v>45294</v>
       </c>
       <c r="I12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
+      <c r="F13" s="2">
+        <v>45294</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45292</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45294</v>
+      </c>
+      <c r="I13">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45295</v>
+      </c>
+      <c r="G14" s="2">
+        <v>45292</v>
+      </c>
+      <c r="H14" s="2">
+        <v>45295</v>
+      </c>
+      <c r="I14">
+        <v>38</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
         <v>1</v>
       </c>
     </row>
@@ -1064,7 +1152,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1076,19 +1164,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1097,7 +1185,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1105,13 +1193,13 @@
         <v>45292</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1120,22 +1208,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H2">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J2">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0.965</v>
+        <v>0.96</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1143,13 +1231,13 @@
         <v>45292</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1158,22 +1246,22 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H3">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="I3">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J3">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0.965</v>
+        <v>0.96</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1181,13 +1269,13 @@
         <v>45292</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1211,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1219,13 +1307,13 @@
         <v>45292</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1249,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1355,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1279,7 +1367,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1287,13 +1375,13 @@
         <v>45292</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1304,13 +1392,13 @@
         <v>45292</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1343,74 +1431,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240101.xlsx
@@ -72,43 +72,43 @@
     <t>20240101-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000003</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000022</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000004</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000023</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000005</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000024</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000006</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000025</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000018</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000019</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000020</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000014</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000019</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000015</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000020</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000016</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000021</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000017</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000022</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000010</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000011</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000012</t>
+  </si>
+  <si>
+    <t>MAT_A</t>
   </si>
   <si>
     <t>MAT_B</t>
-  </si>
-  <si>
-    <t>MAT_A</t>
   </si>
   <si>
     <t>PLANT_001</t>
@@ -630,7 +630,7 @@
         <v>45294</v>
       </c>
       <c r="I2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>33</v>
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.96</v>
+        <v>0.9625</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -671,7 +671,7 @@
         <v>45294</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
         <v>33</v>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.96</v>
+        <v>0.9625</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -712,7 +712,7 @@
         <v>45294</v>
       </c>
       <c r="I4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.96</v>
+        <v>0.9625</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -753,7 +753,7 @@
         <v>45294</v>
       </c>
       <c r="I5">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
         <v>33</v>
@@ -765,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.96</v>
+        <v>0.9625</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -794,7 +794,7 @@
         <v>45294</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
         <v>33</v>
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.96</v>
+        <v>0.9625</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -835,7 +835,7 @@
         <v>45294</v>
       </c>
       <c r="I7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
         <v>33</v>
@@ -847,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.96</v>
+        <v>0.9625</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -876,7 +876,7 @@
         <v>45294</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
         <v>33</v>
@@ -888,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.96</v>
+        <v>0.9625</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -917,7 +917,7 @@
         <v>45294</v>
       </c>
       <c r="I9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
         <v>33</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.96</v>
+        <v>0.9625</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -958,7 +958,7 @@
         <v>45294</v>
       </c>
       <c r="I10">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
         <v>33</v>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.96</v>
+        <v>0.9625</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -981,7 +981,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -1022,7 +1022,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
@@ -1063,7 +1063,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
@@ -1104,7 +1104,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -1208,19 +1208,19 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H2">
         <v>100</v>
       </c>
       <c r="I2">
-        <v>192</v>
+        <v>192.5</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0.96</v>
+        <v>0.9625</v>
       </c>
       <c r="L2" t="s">
         <v>41</v>
@@ -1246,19 +1246,19 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H3">
         <v>100</v>
       </c>
       <c r="I3">
-        <v>192</v>
+        <v>192.5</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0.96</v>
+        <v>0.9625</v>
       </c>
       <c r="L3" t="s">
         <v>41</v>
